--- a/document/Gitマニュアル・調査資料/[資料01]Gitサーバー比較.xlsx
+++ b/document/Gitマニュアル・調査資料/[資料01]Gitサーバー比較.xlsx
@@ -8,12 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="gitサーバー比較" sheetId="1" r:id="rId1"/>
-    <sheet name="【参考】GitWeb" sheetId="3" r:id="rId2"/>
-    <sheet name="【参考】gitolite" sheetId="2" r:id="rId3"/>
-    <sheet name="【参考】ALMinium" sheetId="4" r:id="rId4"/>
-    <sheet name="【参考】GitLab" sheetId="5" r:id="rId5"/>
-    <sheet name="【参考】RhodeCode" sheetId="6" r:id="rId6"/>
-    <sheet name="【参考】GitHub" sheetId="7" r:id="rId7"/>
+    <sheet name="改訂履歴" sheetId="8" r:id="rId2"/>
+    <sheet name="【参考】GitWeb" sheetId="3" r:id="rId3"/>
+    <sheet name="【参考】gitolite" sheetId="2" r:id="rId4"/>
+    <sheet name="【参考】ALMinium" sheetId="4" r:id="rId5"/>
+    <sheet name="【参考】GitLab" sheetId="5" r:id="rId6"/>
+    <sheet name="【参考】RhodeCode" sheetId="6" r:id="rId7"/>
+    <sheet name="【参考】GitHub" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">gitサーバー比較!$B$2:$AB$45</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="326">
   <si>
     <t>Linux</t>
     <phoneticPr fontId="1"/>
@@ -8646,202 +8647,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-【◎】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-企業での利用を考えると、ユーザー管理の仕組みが分かり易く、リポジトリの管理もシンプルで扱い易く、今回評価した中では最も導入し易いツールであった。
-Pull Request を活用して、大規模開発を安全に進める体制も取る事ができる。
-日本語ファイルの対応も、他のツールよりも簡単に対応できた。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>http通信のままでは社外との通信に心配があるので、この点はうまく構成を変えるなどして、ApacheやNginxからのリバースプロキシーを用いて https 通信できる状態にするべき。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>キギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ドウニュウ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>カツヨウ</t>
-    </rPh>
-    <rPh sb="99" eb="102">
-      <t>ダイキボ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>アンゼン</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>タイセイ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="123" eb="126">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>シャガイ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>シンパイ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="223" eb="224">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHubの機能・管理形態に近く、Fork（他者のリポジトリの作業用の複製）、Pull Request（リーダーにブランチのマージ依頼）、Issue（作業タスクのチケット）といった機能がある。
-また、リポジトリをわざわざ作るまでもないような、ちょっとしたソースコードやスクリプトを扱う為のGistや、特定のリポジトリの動向を監視する為のFollow（GitHubのWatchと同様）、Feedといった機能も備える。
-また、今回評価したバージョンでは、WebページのクライアントがIEの場合、互換モードにしないと正常に動作しなかった。
-互換モードにするには、下記のボタンをクリック。
-</t>
-    <rPh sb="15" eb="16">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>ゴカン</t>
-    </rPh>
-    <rPh sb="257" eb="259">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="269" eb="271">
-      <t>ゴカン</t>
-    </rPh>
-    <rPh sb="280" eb="282">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社内利用、閉鎖的な開発、ネット経由の安全な遠隔地開発、操作性、耐障害性（バックアップと迅速な復旧）、および、
 ユーザーアクセス権限の管理（アクセスユーザーを限定する他、状況に応じて一時的に共有リポジトリへの書き込みを閉鎖、また、できれば過去バージョン用タグ・ブランチの更新を禁止にするなど）</t>
     <rPh sb="0" eb="2">
@@ -11746,12 +11551,462 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GitHubの機能・管理形態に近く、Fork（他者のリポジトリの作業用の複製）、Pull Request（リーダーにブランチのマージ依頼）といった機能がある。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+ただし、Pull Request の機能は、現時点ではリポジトリにMercurialを指定した時だけしか使えない為、Gitでは活用できない。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+また、リポジトリをわざわざ作るまでもないような、ちょっとしたソースコードやスクリプトを扱う為のGistや、特定のリポジトリの動向を監視する為のFollow（GitHubのWatchと同様）、Feedといった機能も備える。
+その他、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>他の管理ツールに見られるような、Issue（作業タスクのチケット）の機能が無い。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+なお、今回評価したバージョンでは、W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ebページのクライアントがIEの場合、互換モードにしないと正常に動作しなかった。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+互換モードにするには、下記のボタンをクリック。
+</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="303" eb="305">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="306" eb="307">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="345" eb="347">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="348" eb="350">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="358" eb="360">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下、主な画面のサンプル</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version： 1.7.1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version： 3.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version： 2.2.4-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version： 5.2-stable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version： 1.7.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+【◎】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+企業での利用を考えると、ユーザー管理の仕組みが分かり易く、リポジトリの管理もシンプルで扱い易く、今回評価した中では最も導入し易いツールであった。
+リポジトリの管理に特化したようなツールであり、ワークフロー上の管理ツールへの依存度は控え目で、問題発生時のリカバリは迅速に行えるものと考える。
+日本語ファイルの対応も、他のツールよりも簡単に対応できて扱い易い。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Pull Request や Issue といった機能が使えないのが残念だが、RedmineやTracなどの他のツールと併用すれば、十分に補える。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>http通信のままでは社外との通信に心配があるので、この点はうまく構成を変えるなどして、ApacheやNginxからのリバースプロキシーを用いて https 通信できる状態にすると良さそう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>トッカ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>イゾンド</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="129" eb="132">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ジンソク</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="153" eb="156">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>オギナ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>シャガイ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>シンパイ</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="299" eb="300">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="332" eb="333">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="347" eb="349">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="353" eb="354">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>版</t>
+    <rPh sb="0" eb="1">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リリース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板垣 衛</t>
+    <rPh sb="0" eb="2">
+      <t>イタガキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マモル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（初版）</t>
+    <rPh sb="1" eb="3">
+      <t>ショハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11967,8 +12222,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12005,8 +12275,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -12805,11 +13081,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -13207,6 +13528,175 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -13219,6 +13709,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -13227,156 +13741,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13400,15 +13764,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>107157</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>3131343</xdr:rowOff>
+      <xdr:rowOff>4631531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>3214689</xdr:colOff>
+      <xdr:colOff>3202783</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>3663263</xdr:rowOff>
+      <xdr:rowOff>5163451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13425,7 +13789,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="55745063" y="64674749"/>
+          <a:off x="55733157" y="66377344"/>
           <a:ext cx="3107532" cy="531920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13444,13 +13808,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>360962</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13482,13 +13846,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>360962</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>123274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13525,13 +13889,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>198628</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>64395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13563,13 +13927,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>379667</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>132390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13601,13 +13965,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>379667</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>132390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13639,13 +14003,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>379667</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>132390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13677,13 +14041,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>379667</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>132390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13720,13 +14084,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>313257</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>18298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13758,13 +14122,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>313257</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>18298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13796,13 +14160,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>313257</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>18298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13834,13 +14198,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>246247</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>141914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13872,13 +14236,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>246247</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>141914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13910,13 +14274,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>36724</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>94188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13948,13 +14312,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>636809</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>131897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13986,13 +14350,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>293952</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>170443</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14029,13 +14393,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>551181</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>113600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14067,13 +14431,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>551181</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>113600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14105,13 +14469,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>494124</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>122695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14143,13 +14507,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>494124</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>122695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14181,13 +14545,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>84428</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>160726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14219,13 +14583,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>551181</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>85007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14257,13 +14621,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>541657</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>18255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14300,13 +14664,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>27286</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>65552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14338,13 +14702,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>27286</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>65552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14376,13 +14740,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>27286</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>65552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14414,13 +14778,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>27286</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>65552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14774,86 +15138,86 @@
   <sheetData>
     <row r="1" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="E2" s="169" t="s">
+      <c r="C2" s="187"/>
+      <c r="E2" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
     </row>
     <row r="3" spans="2:28" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="162"/>
+      <c r="E4" s="207"/>
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="171" t="s">
+      <c r="G4" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="168"/>
       <c r="K4" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="209"/>
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="174" t="s">
+      <c r="G5" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="175"/>
-      <c r="I5" s="176"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="171"/>
       <c r="K5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="183" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="185"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="178" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="180"/>
       <c r="K6" s="87" t="s">
         <v>92</v>
       </c>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="D7" s="179"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="188"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
       <c r="K7" s="88" t="s">
         <v>98</v>
       </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="181"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
       <c r="K8" s="89" t="s">
         <v>97</v>
       </c>
@@ -14862,16 +15226,16 @@
       </c>
     </row>
     <row r="9" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="165" t="s">
+      <c r="E9" s="163"/>
+      <c r="F9" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="166"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="161"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
     </row>
@@ -14954,182 +15318,182 @@
       </c>
     </row>
     <row r="12" spans="2:28" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="202" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="138" t="s">
+      <c r="I12" s="205" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="135" t="s">
+      <c r="J12" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="135" t="s">
+      <c r="K12" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="135" t="s">
+      <c r="L12" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="138" t="s">
+      <c r="M12" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="157" t="s">
+      <c r="N12" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="158"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="159"/>
-      <c r="S12" s="153" t="s">
+      <c r="O12" s="196"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="196"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="138" t="s">
+      <c r="T12" s="191"/>
+      <c r="U12" s="191"/>
+      <c r="V12" s="191"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="191"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="144" t="s">
+      <c r="AB12" s="210" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:28" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="140"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="154" t="s">
+      <c r="B13" s="215"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="203"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="154" t="s">
+      <c r="O13" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="154" t="s">
+      <c r="P13" s="192" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="151" t="s">
+      <c r="Q13" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="154" t="s">
+      <c r="R13" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="S13" s="151" t="s">
+      <c r="S13" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="148" t="s">
+      <c r="T13" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="154" t="s">
+      <c r="U13" s="199"/>
+      <c r="V13" s="199"/>
+      <c r="W13" s="199"/>
+      <c r="X13" s="200"/>
+      <c r="Y13" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="Z13" s="154" t="s">
+      <c r="Z13" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="AA13" s="142"/>
-      <c r="AB13" s="145"/>
+      <c r="AA13" s="213"/>
+      <c r="AB13" s="211"/>
     </row>
     <row r="14" spans="2:28" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="140"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147" t="s">
+      <c r="B14" s="215"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="147" t="s">
+      <c r="U14" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="147" t="s">
+      <c r="V14" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="W14" s="148" t="s">
+      <c r="W14" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="145"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="213"/>
+      <c r="AB14" s="211"/>
     </row>
     <row r="15" spans="2:28" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="141"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="201"/>
+      <c r="U15" s="201"/>
+      <c r="V15" s="201"/>
       <c r="W15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="X15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="146"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="212"/>
     </row>
     <row r="16" spans="2:28" s="19" customFormat="1" ht="248.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B16" s="43">
@@ -15220,7 +15584,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>10</v>
@@ -15229,7 +15593,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>14</v>
@@ -15244,7 +15608,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L17" s="105" t="s">
         <v>57</v>
@@ -15262,7 +15626,7 @@
         <v>31</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>63</v>
@@ -15292,10 +15656,10 @@
         <v>31</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB17" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="390.75" x14ac:dyDescent="0.15">
@@ -15304,13 +15668,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>3</v>
@@ -15328,7 +15692,7 @@
         <v>13</v>
       </c>
       <c r="K18" s="53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L18" s="115" t="s">
         <v>57</v>
@@ -15376,7 +15740,7 @@
         <v>30</v>
       </c>
       <c r="AA18" s="64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB18" s="65" t="s">
         <v>152</v>
@@ -15425,7 +15789,7 @@
         <v>120</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>2</v>
@@ -15443,7 +15807,7 @@
         <v>185</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L20" s="107" t="s">
         <v>57</v>
@@ -15491,7 +15855,7 @@
         <v>30</v>
       </c>
       <c r="AA20" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB20" s="42" t="s">
         <v>130</v>
@@ -15510,7 +15874,7 @@
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
@@ -15541,11 +15905,11 @@
       <c r="G22" s="45"/>
       <c r="H22" s="47"/>
       <c r="I22" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J22" s="45"/>
       <c r="K22" s="99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
@@ -15577,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>2</v>
@@ -15595,7 +15959,7 @@
         <v>90</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L23" s="105" t="s">
         <v>62</v>
@@ -15679,7 +16043,7 @@
         <v>62</v>
       </c>
       <c r="K24" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L24" s="107" t="s">
         <v>62</v>
@@ -15770,7 +16134,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="134" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D26" s="61" t="s">
         <v>17</v>
@@ -15944,7 +16308,7 @@
         <v>127</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>8</v>
@@ -15971,19 +16335,19 @@
         <v>111</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O28" s="54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P28" s="53" t="s">
         <v>148</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R28" s="53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S28" s="40" t="s">
         <v>43</v>
@@ -16010,7 +16374,7 @@
         <v>30</v>
       </c>
       <c r="AA28" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AB28" s="65" t="s">
         <v>177</v>
@@ -16069,7 +16433,7 @@
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O30" s="17"/>
       <c r="P30" s="75"/>
@@ -16092,13 +16456,13 @@
         <v>10</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D31" s="53" t="s">
         <v>127</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>174</v>
@@ -16134,10 +16498,10 @@
         <v>182</v>
       </c>
       <c r="Q31" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R31" s="53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S31" s="107" t="s">
         <v>57</v>
@@ -16164,7 +16528,7 @@
         <v>164</v>
       </c>
       <c r="AA31" s="64" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AB31" s="56" t="s">
         <v>165</v>
@@ -16213,7 +16577,7 @@
         <v>127</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>168</v>
@@ -16252,7 +16616,7 @@
         <v>216</v>
       </c>
       <c r="R33" s="53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S33" s="90" t="s">
         <v>178</v>
@@ -16412,7 +16776,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>193</v>
@@ -16478,10 +16842,10 @@
         <v>57</v>
       </c>
       <c r="AA36" s="64" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="AB36" s="119" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="2:28" ht="264" x14ac:dyDescent="0.15">
@@ -16800,13 +17164,13 @@
         <v>116</v>
       </c>
       <c r="F45" s="82" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G45" s="82" t="s">
         <v>117</v>
       </c>
       <c r="H45" s="82" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I45" s="82"/>
       <c r="J45" s="82" t="s">
@@ -16869,13 +17233,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="F6:I8"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:X14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="S13:S15"/>
     <mergeCell ref="S12:Z12"/>
@@ -16892,21 +17264,13 @@
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="D4:E5"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="F6:I8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.15748031496062992"/>
@@ -16923,7 +17287,93 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="138"/>
+    <col min="2" max="2" width="15.625" style="138" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="138" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="154" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="138"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="135" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="136" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="137" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="159">
+        <v>41474</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="149" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="139"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="150"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="145"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="151"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="139"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="150"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="143"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="152"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="141"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="153"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -16932,14 +17382,24 @@
     <col min="1" max="1" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>305</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -16953,12 +17413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -16969,141 +17429,141 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="130" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+    <row r="7" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="130" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="130" t="s">
+    <row r="9" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="130" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="130" t="s">
+    <row r="11" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="130" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="130" t="s">
+    <row r="13" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="130" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="130" t="s">
+    <row r="15" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="130" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="130" t="s">
+    <row r="17" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="130" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="130" t="s">
+    <row r="19" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="130" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="130" t="s">
+    <row r="21" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="130" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="130" t="s">
+    <row r="23" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="130" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="130" t="s">
+    <row r="25" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="130" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="130" t="s">
+    <row r="27" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="130" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="130" t="s">
+    <row r="29" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="130" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="130" t="s">
+    <row r="31" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="130" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="130" t="s">
+    <row r="33" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="130" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="130" t="s">
+    <row r="35" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="130" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="130" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="130" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
     <row r="37" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B39" s="130" t="s">
-        <v>290</v>
-      </c>
-    </row>
+    <row r="39" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
     <row r="40" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B40" s="130" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B41" s="130" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B42" s="130" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="43" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="130" t="s">
-        <v>294</v>
+    <row r="43" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="130" t="s">
+        <v>291</v>
       </c>
     </row>
+    <row r="44" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
     <row r="45" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B45" s="130" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
@@ -17111,147 +17571,152 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B48" s="130" t="s">
-        <v>296</v>
+    <row r="47" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="130" t="s">
+        <v>291</v>
       </c>
     </row>
+    <row r="48" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
     <row r="49" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B49" s="130" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B50" s="130" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B51" s="130" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B52" s="130" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B53" s="130" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B54" s="130" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B55" s="130" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B56" s="130" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="57" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B58" s="130" t="s">
-        <v>303</v>
+    <row r="57" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="130" t="s">
+        <v>291</v>
       </c>
     </row>
+    <row r="58" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
     <row r="59" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B59" s="130" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B60" s="130" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B61" s="130" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B62" s="130" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B63" s="130" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="2:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B64" s="130" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B65" s="130" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B66" s="130" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B68" s="130" t="s">
-        <v>304</v>
+    <row r="67" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="130" t="s">
+        <v>291</v>
       </c>
     </row>
+    <row r="68" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
     <row r="69" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B69" s="130" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B70" s="130" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B71" s="130" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B72" s="130" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B73" s="130" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B74" s="130" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B75" s="130" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B76" s="130" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>305</v>
+    <row r="77" spans="1:2" s="130" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B77" s="130" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -17264,12 +17729,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A294"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -17278,49 +17743,24 @@
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" t="s">
-        <v>305</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>315</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:A370"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>310</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A370" t="s">
-        <v>305</v>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -17339,7 +17779,52 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A304"/>
+  <dimension ref="A1:B372"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="131" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -17348,14 +17833,24 @@
     <col min="1" max="1" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A304" t="s">
-        <v>305</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -17369,12 +17864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A216"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -17383,14 +17878,19 @@
     <col min="1" max="1" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
-        <v>305</v>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/document/Gitマニュアル・調査資料/[資料01]Gitサーバー比較.xlsx
+++ b/document/Gitマニュアル・調査資料/[資料01]Gitサーバー比較.xlsx
@@ -11947,24 +11947,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>版</t>
-    <rPh sb="0" eb="1">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リリース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>改訂内容</t>
     <rPh sb="0" eb="2">
       <t>カイテイ</t>
@@ -11975,13 +11957,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初版</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>板垣 衛</t>
     <rPh sb="0" eb="2">
       <t>イタガキ</t>
@@ -11992,9 +11967,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（初版）</t>
+    <t>稿</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初稿</t>
+    <rPh sb="0" eb="2">
+      <t>ショコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改定日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂者</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（初稿）</t>
     <rPh sb="1" eb="3">
-      <t>ショハン</t>
+      <t>ショコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13571,6 +13577,96 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13651,96 +13747,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15138,86 +15144,86 @@
   <sheetData>
     <row r="1" spans="2:28" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="E2" s="164" t="s">
+      <c r="C2" s="175"/>
+      <c r="E2" s="194" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
     </row>
     <row r="3" spans="2:28" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="206" t="s">
+      <c r="D4" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="207"/>
+      <c r="E4" s="187"/>
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="168"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="198"/>
       <c r="K4" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="208"/>
-      <c r="E5" s="209"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="189"/>
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="169" t="s">
+      <c r="G5" s="199" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="K5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="202" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="178" t="s">
+      <c r="E6" s="203"/>
+      <c r="F6" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="180"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="210"/>
       <c r="K6" s="87" t="s">
         <v>92</v>
       </c>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="D7" s="174"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="213"/>
       <c r="K7" s="88" t="s">
         <v>98</v>
       </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="186"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="216"/>
       <c r="K8" s="89" t="s">
         <v>97</v>
       </c>
@@ -15226,16 +15232,16 @@
       </c>
     </row>
     <row r="9" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="192" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="160" t="s">
+      <c r="E9" s="193"/>
+      <c r="F9" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="161"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="191"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
     </row>
@@ -15318,182 +15324,182 @@
       </c>
     </row>
     <row r="12" spans="2:28" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="214" t="s">
+      <c r="B12" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="202" t="s">
+      <c r="C12" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="202" t="s">
+      <c r="D12" s="160" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="205" t="s">
+      <c r="E12" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="205" t="s">
+      <c r="F12" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="202" t="s">
+      <c r="G12" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="202" t="s">
+      <c r="H12" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="205" t="s">
+      <c r="I12" s="163" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="202" t="s">
+      <c r="J12" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="202" t="s">
+      <c r="K12" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="202" t="s">
+      <c r="L12" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="205" t="s">
+      <c r="M12" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="195" t="s">
+      <c r="N12" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="196"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="196"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="191" t="s">
+      <c r="O12" s="183"/>
+      <c r="P12" s="183"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="191"/>
-      <c r="U12" s="191"/>
-      <c r="V12" s="191"/>
-      <c r="W12" s="191"/>
-      <c r="X12" s="191"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="205" t="s">
+      <c r="T12" s="178"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
+      <c r="AA12" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="210" t="s">
+      <c r="AB12" s="169" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:28" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="215"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="192" t="s">
+      <c r="B13" s="165"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="192" t="s">
+      <c r="O13" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="192" t="s">
+      <c r="P13" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="188" t="s">
+      <c r="Q13" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="192" t="s">
+      <c r="R13" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="S13" s="188" t="s">
+      <c r="S13" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="198" t="s">
+      <c r="T13" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="199"/>
-      <c r="V13" s="199"/>
-      <c r="W13" s="199"/>
-      <c r="X13" s="200"/>
-      <c r="Y13" s="192" t="s">
+      <c r="U13" s="185"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="185"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="Z13" s="192" t="s">
+      <c r="Z13" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="AA13" s="213"/>
-      <c r="AB13" s="211"/>
+      <c r="AA13" s="167"/>
+      <c r="AB13" s="170"/>
     </row>
     <row r="14" spans="2:28" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="215"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="193"/>
-      <c r="R14" s="193"/>
-      <c r="S14" s="189"/>
-      <c r="T14" s="189" t="s">
+      <c r="B14" s="165"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="180"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="180"/>
+      <c r="S14" s="172"/>
+      <c r="T14" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="189" t="s">
+      <c r="U14" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="189" t="s">
+      <c r="V14" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="W14" s="198" t="s">
+      <c r="W14" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="X14" s="200"/>
-      <c r="Y14" s="193"/>
-      <c r="Z14" s="193"/>
-      <c r="AA14" s="213"/>
-      <c r="AB14" s="211"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="180"/>
+      <c r="Z14" s="180"/>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="170"/>
     </row>
     <row r="15" spans="2:28" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="216"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="194"/>
-      <c r="O15" s="194"/>
-      <c r="P15" s="194"/>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="194"/>
-      <c r="S15" s="190"/>
-      <c r="T15" s="201"/>
-      <c r="U15" s="201"/>
-      <c r="V15" s="201"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
       <c r="W15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="X15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Y15" s="194"/>
-      <c r="Z15" s="194"/>
-      <c r="AA15" s="201"/>
-      <c r="AB15" s="212"/>
+      <c r="Y15" s="181"/>
+      <c r="Z15" s="181"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="171"/>
     </row>
     <row r="16" spans="2:28" s="19" customFormat="1" ht="248.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B16" s="43">
@@ -17233,21 +17239,13 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AA12:AA15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="F6:I8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="S13:S15"/>
     <mergeCell ref="S12:Z12"/>
@@ -17264,13 +17262,21 @@
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="F6:I8"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AA12:AA15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.15748031496062992"/>
@@ -17305,27 +17311,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="135" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="136" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="137" t="s">
         <v>319</v>
-      </c>
-      <c r="B1" s="136" t="s">
-        <v>320</v>
-      </c>
-      <c r="C1" s="136" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="137" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="147" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="159">
         <v>41474</v>
       </c>
       <c r="C2" s="148" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D2" s="149" t="s">
         <v>325</v>

--- a/document/Gitマニュアル・調査資料/[資料01]Gitサーバー比較.xlsx
+++ b/document/Gitマニュアル・調査資料/[資料01]Gitサーバー比較.xlsx
@@ -15114,7 +15114,7 @@
       <pane xSplit="3" ySplit="15" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -17280,9 +17280,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="55" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17297,6 +17298,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17370,7 +17372,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;RPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -17381,7 +17387,9 @@
   </sheetPr>
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17411,9 +17419,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;C
+&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17426,7 +17436,9 @@
   </sheetPr>
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17728,9 +17740,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -17742,7 +17755,9 @@
   </sheetPr>
   <dimension ref="A1:B296"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17772,9 +17787,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17787,7 +17803,9 @@
   </sheetPr>
   <dimension ref="A1:B372"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17817,9 +17835,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17832,7 +17851,9 @@
   </sheetPr>
   <dimension ref="A1:B306"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17862,9 +17883,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17877,7 +17899,9 @@
   </sheetPr>
   <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17902,9 +17926,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
